--- a/dbstats_V2.xlsx
+++ b/dbstats_V2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Copy\Master IK\git\SWT-ass1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mart/Git/SWT-ass1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,12 @@
   <definedNames>
     <definedName name="newresults" localSheetId="0">Sheet1!$A$1:$D$241</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="253">
   <si>
     <t>TelevisionShow</t>
   </si>
@@ -792,6 +795,15 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;http://nl.dbpedia.org/property/datumbegin&gt;                 </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>Mart</t>
   </si>
 </sst>
 </file>
@@ -831,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -851,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,21 +1125,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +1155,11 @@
       <c r="E1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1175,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1175,14 +1199,21 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
         <f>SUM(E1:E241)</f>
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>SUM(F:F)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1198,8 +1229,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1215,12 +1249,19 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
         <f>G3/241</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>H3/241</f>
+        <v>0.94190871369294604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1236,8 +1277,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1297,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1270,8 +1320,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1287,8 +1340,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1304,8 +1360,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1321,8 +1380,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1338,8 +1400,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1355,8 +1420,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1372,8 +1440,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1389,8 +1460,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1406,8 +1480,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1423,8 +1500,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1440,8 +1520,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1457,8 +1540,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1474,8 +1560,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1491,8 +1580,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1508,8 +1600,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1525,8 +1620,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1542,8 +1640,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1559,8 +1660,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1576,8 +1680,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1593,8 +1700,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1610,8 +1720,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1627,8 +1740,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1644,8 +1760,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1661,8 +1780,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1678,8 +1800,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1695,8 +1820,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1712,8 +1840,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1729,8 +1860,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1746,8 +1880,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1763,8 +1900,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1780,8 +1920,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1797,8 +1940,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1814,8 +1960,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1831,8 +1980,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1848,8 +2000,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1865,8 +2020,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1882,8 +2040,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1899,8 +2060,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1916,8 +2080,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -1933,8 +2100,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -1950,8 +2120,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -1967,8 +2140,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1984,8 +2160,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -2001,8 +2180,11 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2018,8 +2200,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2035,8 +2220,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2052,8 +2240,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2069,8 +2260,11 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -2086,8 +2280,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -2103,8 +2300,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -2120,8 +2320,11 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2137,8 +2340,11 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -2154,8 +2360,11 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2171,8 +2380,11 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2188,8 +2400,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -2205,8 +2420,11 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2222,8 +2440,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2239,8 +2460,11 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2256,8 +2480,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2273,8 +2500,11 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2290,8 +2520,11 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -2307,8 +2540,11 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2324,8 +2560,11 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2341,8 +2580,11 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -2358,8 +2600,11 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2375,8 +2620,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -2392,8 +2640,11 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -2409,8 +2660,11 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -2426,8 +2680,11 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -2443,8 +2700,11 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -2460,8 +2720,11 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -2477,8 +2740,11 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -2494,8 +2760,11 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2511,8 +2780,11 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -2528,8 +2800,11 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2545,8 +2820,11 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -2562,8 +2840,11 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -2579,8 +2860,11 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2596,8 +2880,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2613,8 +2900,11 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -2630,8 +2920,11 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -2647,8 +2940,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -2664,8 +2960,11 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2681,8 +2980,11 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -2698,8 +3000,11 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -2715,8 +3020,11 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -2732,8 +3040,11 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -2749,8 +3060,11 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -2766,8 +3080,11 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -2783,8 +3100,11 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2800,8 +3120,11 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -2817,8 +3140,11 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -2834,8 +3160,11 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2851,8 +3180,11 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2868,8 +3200,11 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2885,8 +3220,11 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -2902,8 +3240,11 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -2919,8 +3260,11 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -2936,8 +3280,11 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -2953,8 +3300,11 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>158</v>
       </c>
@@ -2970,8 +3320,11 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>159</v>
       </c>
@@ -2987,8 +3340,11 @@
       <c r="E109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>57</v>
       </c>
@@ -3004,8 +3360,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -3021,8 +3380,11 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>162</v>
       </c>
@@ -3038,8 +3400,11 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -3055,8 +3420,11 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>163</v>
       </c>
@@ -3072,8 +3440,11 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -3089,8 +3460,11 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>167</v>
       </c>
@@ -3106,8 +3480,11 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -3123,8 +3500,11 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -3140,8 +3520,11 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -3157,8 +3540,11 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>162</v>
       </c>
@@ -3174,8 +3560,11 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -3191,8 +3580,11 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -3208,8 +3600,11 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>172</v>
       </c>
@@ -3225,8 +3620,11 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>170</v>
       </c>
@@ -3242,8 +3640,11 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -3259,8 +3660,11 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -3276,8 +3680,11 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3293,8 +3700,11 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>178</v>
       </c>
@@ -3310,8 +3720,11 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>179</v>
       </c>
@@ -3327,8 +3740,11 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>180</v>
       </c>
@@ -3344,8 +3760,11 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>181</v>
       </c>
@@ -3361,8 +3780,11 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -3378,8 +3800,11 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -3395,8 +3820,11 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>182</v>
       </c>
@@ -3412,8 +3840,11 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>105</v>
       </c>
@@ -3429,8 +3860,11 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -3446,8 +3880,11 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3463,8 +3900,11 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -3480,8 +3920,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3497,8 +3940,11 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -3514,8 +3960,11 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>106</v>
       </c>
@@ -3531,8 +3980,11 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -3548,8 +4000,11 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -3565,8 +4020,11 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -3582,8 +4040,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>186</v>
       </c>
@@ -3599,8 +4060,11 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -3616,8 +4080,11 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -3633,8 +4100,11 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +4120,11 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -3667,8 +4140,11 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -3684,8 +4160,11 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -3701,8 +4180,11 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>194</v>
       </c>
@@ -3718,8 +4200,11 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -3735,8 +4220,11 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -3752,8 +4240,11 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -3769,8 +4260,11 @@
       <c r="E155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -3786,8 +4280,11 @@
       <c r="E156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>63</v>
       </c>
@@ -3803,8 +4300,11 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -3820,8 +4320,11 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>196</v>
       </c>
@@ -3837,8 +4340,11 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>64</v>
       </c>
@@ -3854,8 +4360,11 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -3871,8 +4380,11 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>199</v>
       </c>
@@ -3888,8 +4400,11 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>71</v>
       </c>
@@ -3905,8 +4420,11 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -3922,8 +4440,11 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>86</v>
       </c>
@@ -3939,8 +4460,11 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>68</v>
       </c>
@@ -3956,8 +4480,11 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>105</v>
       </c>
@@ -3973,8 +4500,11 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>205</v>
       </c>
@@ -3990,8 +4520,11 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>75</v>
       </c>
@@ -4007,8 +4540,11 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>109</v>
       </c>
@@ -4024,8 +4560,11 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>208</v>
       </c>
@@ -4041,8 +4580,11 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -4058,8 +4600,11 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>71</v>
       </c>
@@ -4075,8 +4620,11 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>36</v>
       </c>
@@ -4092,8 +4640,11 @@
       <c r="E174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -4109,8 +4660,11 @@
       <c r="E175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>211</v>
       </c>
@@ -4126,8 +4680,11 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -4143,8 +4700,11 @@
       <c r="E177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -4160,8 +4720,11 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>67</v>
       </c>
@@ -4177,8 +4740,11 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>113</v>
       </c>
@@ -4194,8 +4760,11 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>123</v>
       </c>
@@ -4211,8 +4780,11 @@
       <c r="E181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>172</v>
       </c>
@@ -4228,8 +4800,11 @@
       <c r="E182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>216</v>
       </c>
@@ -4245,8 +4820,11 @@
       <c r="E183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>218</v>
       </c>
@@ -4262,8 +4840,11 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>219</v>
       </c>
@@ -4279,8 +4860,11 @@
       <c r="E185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>50</v>
       </c>
@@ -4296,8 +4880,11 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -4313,8 +4900,11 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -4330,8 +4920,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -4347,8 +4940,11 @@
       <c r="E189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -4364,8 +4960,11 @@
       <c r="E190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -4381,8 +4980,11 @@
       <c r="E191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -4398,8 +5000,11 @@
       <c r="E192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>71</v>
       </c>
@@ -4415,8 +5020,11 @@
       <c r="E193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>158</v>
       </c>
@@ -4432,8 +5040,11 @@
       <c r="E194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>71</v>
       </c>
@@ -4449,8 +5060,11 @@
       <c r="E195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>179</v>
       </c>
@@ -4466,8 +5080,11 @@
       <c r="E196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -4483,8 +5100,11 @@
       <c r="E197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -4500,8 +5120,11 @@
       <c r="E198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -4517,8 +5140,11 @@
       <c r="E199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +5160,11 @@
       <c r="E200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -4551,8 +5180,11 @@
       <c r="E201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>75</v>
       </c>
@@ -4568,8 +5200,11 @@
       <c r="E202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>145</v>
       </c>
@@ -4585,8 +5220,11 @@
       <c r="E203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>84</v>
       </c>
@@ -4602,8 +5240,11 @@
       <c r="E204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -4619,8 +5260,11 @@
       <c r="E205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>137</v>
       </c>
@@ -4636,8 +5280,11 @@
       <c r="E206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -4653,8 +5300,11 @@
       <c r="E207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -4670,8 +5320,11 @@
       <c r="E208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>64</v>
       </c>
@@ -4687,8 +5340,11 @@
       <c r="E209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -4704,8 +5360,11 @@
       <c r="E210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>71</v>
       </c>
@@ -4721,8 +5380,11 @@
       <c r="E211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>44</v>
       </c>
@@ -4738,8 +5400,11 @@
       <c r="E212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>62</v>
       </c>
@@ -4755,8 +5420,11 @@
       <c r="E213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>44</v>
       </c>
@@ -4772,8 +5440,11 @@
       <c r="E214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -4789,8 +5460,11 @@
       <c r="E215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -4806,8 +5480,11 @@
       <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>237</v>
       </c>
@@ -4823,8 +5500,11 @@
       <c r="E217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>135</v>
       </c>
@@ -4840,8 +5520,11 @@
       <c r="E218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>63</v>
       </c>
@@ -4857,8 +5540,11 @@
       <c r="E219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -4874,8 +5560,11 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>194</v>
       </c>
@@ -4891,8 +5580,11 @@
       <c r="E221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>196</v>
       </c>
@@ -4908,8 +5600,11 @@
       <c r="E222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>126</v>
       </c>
@@ -4925,8 +5620,11 @@
       <c r="E223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>178</v>
       </c>
@@ -4942,8 +5640,11 @@
       <c r="E224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -4959,8 +5660,11 @@
       <c r="E225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -4976,8 +5680,11 @@
       <c r="E226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>219</v>
       </c>
@@ -4993,8 +5700,11 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -5010,8 +5720,11 @@
       <c r="E228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -5027,8 +5740,11 @@
       <c r="E229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>81</v>
       </c>
@@ -5044,8 +5760,11 @@
       <c r="E230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -5061,8 +5780,11 @@
       <c r="E231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>39</v>
       </c>
@@ -5078,8 +5800,11 @@
       <c r="E232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -5095,8 +5820,11 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>108</v>
       </c>
@@ -5112,8 +5840,11 @@
       <c r="E234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -5129,8 +5860,11 @@
       <c r="E235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5146,8 +5880,11 @@
       <c r="E236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>179</v>
       </c>
@@ -5163,8 +5900,11 @@
       <c r="E237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -5180,8 +5920,11 @@
       <c r="E238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>186</v>
       </c>
@@ -5197,8 +5940,11 @@
       <c r="E239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>184</v>
       </c>
@@ -5214,8 +5960,11 @@
       <c r="E240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -5229,6 +5978,9 @@
         <v>12</v>
       </c>
       <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
         <v>1</v>
       </c>
     </row>
